--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl2-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl2-Cxcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>832.4576029999999</v>
+        <v>0.1716463333333333</v>
       </c>
       <c r="H2">
-        <v>2497.372809</v>
+        <v>0.514939</v>
       </c>
       <c r="I2">
-        <v>0.9962548015050657</v>
+        <v>0.07772289907851986</v>
       </c>
       <c r="J2">
-        <v>0.9962548015050658</v>
+        <v>0.07772289907851984</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,33 +552,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>5.973506333333333</v>
+        <v>0.001809666666666667</v>
       </c>
       <c r="N2">
-        <v>17.920519</v>
+        <v>0.005429</v>
       </c>
       <c r="O2">
-        <v>0.9996971429349232</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9996971429349232</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>4972.690763751985</v>
+        <v>0.0003106226478888889</v>
       </c>
       <c r="R2">
-        <v>44754.21687376787</v>
+        <v>0.002795603831</v>
       </c>
       <c r="S2">
-        <v>0.9959530786998132</v>
+        <v>0.07772289907851986</v>
       </c>
       <c r="T2">
-        <v>0.9959530786998133</v>
+        <v>0.07772289907851984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>832.4576029999999</v>
+        <v>1.440925666666667</v>
       </c>
       <c r="H3">
-        <v>2497.372809</v>
+        <v>4.322777</v>
       </c>
       <c r="I3">
-        <v>0.9962548015050657</v>
+        <v>0.652463224789629</v>
       </c>
       <c r="J3">
-        <v>0.9962548015050658</v>
+        <v>0.652463224789629</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.005429</v>
       </c>
       <c r="O3">
-        <v>0.0003028570650768373</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.0003028570650768372</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.506470775562333</v>
+        <v>0.002607595148111111</v>
       </c>
       <c r="R3">
-        <v>13.558236980061</v>
+        <v>0.023468356333</v>
       </c>
       <c r="S3">
-        <v>0.0003017228052525313</v>
+        <v>0.652463224789629</v>
       </c>
       <c r="T3">
-        <v>0.0003017228052525312</v>
+        <v>0.652463224789629</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.440925666666667</v>
+        <v>0.5958676666666666</v>
       </c>
       <c r="H4">
-        <v>4.322777</v>
+        <v>1.787603</v>
       </c>
       <c r="I4">
-        <v>0.001724447117613213</v>
+        <v>0.2698138761318511</v>
       </c>
       <c r="J4">
-        <v>0.001724447117613213</v>
+        <v>0.2698138761318511</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,214 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.973506333333333</v>
+        <v>0.001809666666666667</v>
       </c>
       <c r="N4">
-        <v>17.920519</v>
+        <v>0.005429</v>
       </c>
       <c r="O4">
-        <v>0.9996971429349232</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9996971429349232</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>8.60737859569589</v>
+        <v>0.001078321854111111</v>
       </c>
       <c r="R4">
-        <v>77.46640736126299</v>
+        <v>0.009704896686999998</v>
       </c>
       <c r="S4">
-        <v>0.001723924856620293</v>
+        <v>0.2698138761318511</v>
       </c>
       <c r="T4">
-        <v>0.001723924856620293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.440925666666667</v>
-      </c>
-      <c r="H5">
-        <v>4.322777</v>
-      </c>
-      <c r="I5">
-        <v>0.001724447117613213</v>
-      </c>
-      <c r="J5">
-        <v>0.001724447117613213</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.001809666666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.005429</v>
-      </c>
-      <c r="O5">
-        <v>0.0003028570650768373</v>
-      </c>
-      <c r="P5">
-        <v>0.0003028570650768372</v>
-      </c>
-      <c r="Q5">
-        <v>0.002607595148111111</v>
-      </c>
-      <c r="R5">
-        <v>0.023468356333</v>
-      </c>
-      <c r="S5">
-        <v>5.222609929205495E-07</v>
-      </c>
-      <c r="T5">
-        <v>5.222609929205494E-07</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.688513666666666</v>
-      </c>
-      <c r="H6">
-        <v>5.065541</v>
-      </c>
-      <c r="I6">
-        <v>0.002020751377321003</v>
-      </c>
-      <c r="J6">
-        <v>0.002020751377321003</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>5.973506333333333</v>
-      </c>
-      <c r="N6">
-        <v>17.920519</v>
-      </c>
-      <c r="O6">
-        <v>0.9996971429349232</v>
-      </c>
-      <c r="P6">
-        <v>0.9996971429349232</v>
-      </c>
-      <c r="Q6">
-        <v>10.08634708175322</v>
-      </c>
-      <c r="R6">
-        <v>90.77712373577899</v>
-      </c>
-      <c r="S6">
-        <v>0.002020139378489617</v>
-      </c>
-      <c r="T6">
-        <v>0.002020139378489618</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.688513666666666</v>
-      </c>
-      <c r="H7">
-        <v>5.065541</v>
-      </c>
-      <c r="I7">
-        <v>0.002020751377321003</v>
-      </c>
-      <c r="J7">
-        <v>0.002020751377321003</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.001809666666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.005429</v>
-      </c>
-      <c r="O7">
-        <v>0.0003028570650768373</v>
-      </c>
-      <c r="P7">
-        <v>0.0003028570650768372</v>
-      </c>
-      <c r="Q7">
-        <v>0.003055646898777777</v>
-      </c>
-      <c r="R7">
-        <v>0.027500822089</v>
-      </c>
-      <c r="S7">
-        <v>6.119988313854156E-07</v>
-      </c>
-      <c r="T7">
-        <v>6.119988313854156E-07</v>
+        <v>0.2698138761318511</v>
       </c>
     </row>
   </sheetData>
